--- a/data/pca/factorExposure/factorExposure_2017-05-25.xlsx
+++ b/data/pca/factorExposure/factorExposure_2017-05-25.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
   <si>
     <t>factor1</t>
   </si>
@@ -26,6 +26,12 @@
   </si>
   <si>
     <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -692,13 +698,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E104"/>
+  <dimension ref="A1:G104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -711,61 +717,85 @@
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B2">
-        <v>-0.02272950311956016</v>
+        <v>-0.01046657098100143</v>
       </c>
       <c r="C2">
-        <v>0.00826602867319608</v>
+        <v>0.04483367291083119</v>
       </c>
       <c r="D2">
-        <v>0.03638647878929034</v>
+        <v>-0.02972080276537478</v>
       </c>
       <c r="E2">
-        <v>-0.006287388064724635</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>-0.03339356232532636</v>
+      </c>
+      <c r="F2">
+        <v>0.009806718366046796</v>
+      </c>
+      <c r="G2">
+        <v>-0.09378259786132812</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B3">
-        <v>-0.0176628826361996</v>
+        <v>-0.04305274716831645</v>
       </c>
       <c r="C3">
-        <v>-0.02787483141968113</v>
+        <v>0.1018014773552514</v>
       </c>
       <c r="D3">
-        <v>0.09973697734747797</v>
+        <v>-0.0177393906859401</v>
       </c>
       <c r="E3">
-        <v>-0.04012760765696314</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
+        <v>-0.09873541637154895</v>
+      </c>
+      <c r="F3">
+        <v>0.006796274386920779</v>
+      </c>
+      <c r="G3">
+        <v>-0.1843118070065213</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B4">
-        <v>-0.02558278028119999</v>
+        <v>-0.05589736419224713</v>
       </c>
       <c r="C4">
-        <v>-0.007696298156881901</v>
+        <v>0.06843028560356412</v>
       </c>
       <c r="D4">
-        <v>0.08801622557348028</v>
+        <v>-0.02444063577401688</v>
       </c>
       <c r="E4">
-        <v>0.01455076698018337</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <v>-0.02734105552960374</v>
+      </c>
+      <c r="F4">
+        <v>0.01213718522012831</v>
+      </c>
+      <c r="G4">
+        <v>-0.09574352942209155</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -779,163 +809,223 @@
       <c r="E5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B6">
-        <v>-0.01374257401391296</v>
+        <v>-0.03723117693403108</v>
       </c>
       <c r="C6">
-        <v>0.008458338740357453</v>
+        <v>0.0534439426319686</v>
       </c>
       <c r="D6">
-        <v>0.0830391275535438</v>
+        <v>-0.01683846697226809</v>
       </c>
       <c r="E6">
-        <v>0.01066733568518282</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+        <v>-0.03143892046081866</v>
+      </c>
+      <c r="F6">
+        <v>0.01076113834460863</v>
+      </c>
+      <c r="G6">
+        <v>-0.07665610659357662</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B7">
-        <v>-0.01203712740526751</v>
+        <v>-0.020807640225158</v>
       </c>
       <c r="C7">
-        <v>-0.004085282368748789</v>
+        <v>0.04179314360388273</v>
       </c>
       <c r="D7">
-        <v>0.04315491451601044</v>
+        <v>-0.01339987288947101</v>
       </c>
       <c r="E7">
-        <v>0.0529420123444142</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+        <v>0.004393476849071217</v>
+      </c>
+      <c r="F7">
+        <v>-0.003561068509890891</v>
+      </c>
+      <c r="G7">
+        <v>-0.1270269048832682</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B8">
-        <v>-0.00103637383551835</v>
+        <v>-0.003796976777612975</v>
       </c>
       <c r="C8">
-        <v>-0.0005668852218967735</v>
+        <v>0.02522667989379352</v>
       </c>
       <c r="D8">
-        <v>0.006767102908699058</v>
+        <v>-0.003872941855430533</v>
       </c>
       <c r="E8">
-        <v>0.007874673454977643</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+        <v>-0.02296627796911285</v>
+      </c>
+      <c r="F8">
+        <v>0.007206068212027938</v>
+      </c>
+      <c r="G8">
+        <v>-0.06597102711891853</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B9">
-        <v>-0.01758744110022585</v>
+        <v>-0.03353223726971823</v>
       </c>
       <c r="C9">
-        <v>-0.009903269156530677</v>
+        <v>0.0498368963564863</v>
       </c>
       <c r="D9">
-        <v>0.06308754933992634</v>
+        <v>-0.01665844479652138</v>
       </c>
       <c r="E9">
-        <v>0.004973854253614009</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
+        <v>-0.01731790755966294</v>
+      </c>
+      <c r="F9">
+        <v>0.009627476543982645</v>
+      </c>
+      <c r="G9">
+        <v>-0.09560959301168684</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B10">
-        <v>-0.03825768123704207</v>
+        <v>-0.09839267979599786</v>
       </c>
       <c r="C10">
-        <v>-0.1764380266680753</v>
+        <v>-0.1810188904062972</v>
       </c>
       <c r="D10">
-        <v>-0.09759571806631094</v>
+        <v>0.01481840785843075</v>
       </c>
       <c r="E10">
-        <v>-0.02428090670626086</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
+        <v>-0.02086509450353757</v>
+      </c>
+      <c r="F10">
+        <v>-0.02259149884374977</v>
+      </c>
+      <c r="G10">
+        <v>-0.06126810079679346</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B11">
-        <v>-0.0008477817173317857</v>
+        <v>-0.03497149844594025</v>
       </c>
       <c r="C11">
-        <v>0.0001764161169083815</v>
+        <v>0.05483691996569889</v>
       </c>
       <c r="D11">
-        <v>0.05685069150552243</v>
+        <v>-0.002215580232603299</v>
       </c>
       <c r="E11">
-        <v>0.0006608520479824524</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
+        <v>-0.009936418949397518</v>
+      </c>
+      <c r="F11">
+        <v>0.02132539884266074</v>
+      </c>
+      <c r="G11">
+        <v>-0.08405644347135376</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B12">
-        <v>-0.005885002336757082</v>
+        <v>-0.0367768736569524</v>
       </c>
       <c r="C12">
-        <v>-0.001431013452171686</v>
+        <v>0.04950007250677407</v>
       </c>
       <c r="D12">
-        <v>0.05210631041629125</v>
+        <v>-0.006152559936802103</v>
       </c>
       <c r="E12">
-        <v>0.01312814051780227</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
+        <v>-0.002566286172234021</v>
+      </c>
+      <c r="F12">
+        <v>0.001610464544768005</v>
+      </c>
+      <c r="G12">
+        <v>-0.0788554229802116</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B13">
-        <v>-0.02520249334501667</v>
+        <v>-0.01655834963545138</v>
       </c>
       <c r="C13">
-        <v>-0.01331041027844041</v>
+        <v>0.04162496048654307</v>
       </c>
       <c r="D13">
-        <v>0.03645548556343993</v>
+        <v>-0.02618839540903902</v>
       </c>
       <c r="E13">
-        <v>-0.01276951969797676</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
+        <v>-0.03016211898238682</v>
+      </c>
+      <c r="F13">
+        <v>0.006823953881105222</v>
+      </c>
+      <c r="G13">
+        <v>-0.1200817010398874</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B14">
-        <v>-0.009966250214735115</v>
+        <v>-0.009032474009142439</v>
       </c>
       <c r="C14">
-        <v>-0.01213479869188465</v>
+        <v>0.02960145520860016</v>
       </c>
       <c r="D14">
-        <v>0.02060541674824495</v>
+        <v>-0.009811681053086618</v>
       </c>
       <c r="E14">
-        <v>0.002646033157017782</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
+        <v>-0.002415910885292016</v>
+      </c>
+      <c r="F14">
+        <v>-0.00912030000956692</v>
+      </c>
+      <c r="G14">
+        <v>-0.09861686852909343</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -949,27 +1039,39 @@
       <c r="E15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:5">
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B16">
-        <v>-0.002141540842515765</v>
+        <v>-0.03360576673550024</v>
       </c>
       <c r="C16">
-        <v>-0.006278554485784208</v>
+        <v>0.04871043193596297</v>
       </c>
       <c r="D16">
-        <v>0.05076348219898942</v>
+        <v>-0.001833646339419456</v>
       </c>
       <c r="E16">
-        <v>0.0106639029746762</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
+        <v>-0.009286342700812744</v>
+      </c>
+      <c r="F16">
+        <v>0.002621265029303852</v>
+      </c>
+      <c r="G16">
+        <v>-0.08724896434854212</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -983,10 +1085,16 @@
       <c r="E17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:5">
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1000,146 +1108,200 @@
       <c r="E18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:5">
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B19">
-        <v>-0.01555531556081741</v>
+        <v>-0.02207029813926971</v>
       </c>
       <c r="C19">
-        <v>-0.01062675683866876</v>
+        <v>0.05452936574518347</v>
       </c>
       <c r="D19">
-        <v>0.04843427324981428</v>
+        <v>-0.0188765644277002</v>
       </c>
       <c r="E19">
-        <v>0.006326746816446168</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
+        <v>-0.06939772271360602</v>
+      </c>
+      <c r="F19">
+        <v>0.02247413827989221</v>
+      </c>
+      <c r="G19">
+        <v>-0.1331943466414848</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B20">
-        <v>-0.01126718616406333</v>
+        <v>-0.01524043666749489</v>
       </c>
       <c r="C20">
-        <v>-0.002139811930498732</v>
+        <v>0.04039383487574853</v>
       </c>
       <c r="D20">
-        <v>0.03491382607275739</v>
+        <v>-0.01408060949777148</v>
       </c>
       <c r="E20">
-        <v>-0.01744528933128931</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
+        <v>-0.02954636460704174</v>
+      </c>
+      <c r="F20">
+        <v>-0.01126522499412125</v>
+      </c>
+      <c r="G20">
+        <v>-0.106167894483536</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B21">
-        <v>-0.01617703694685869</v>
+        <v>-0.01304758417642619</v>
       </c>
       <c r="C21">
-        <v>-0.01211192085732162</v>
+        <v>0.04097166210907029</v>
       </c>
       <c r="D21">
-        <v>0.03978700681027064</v>
+        <v>-0.01865458596594853</v>
       </c>
       <c r="E21">
-        <v>-0.0007397872426852538</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
+        <v>-0.04194935532062703</v>
+      </c>
+      <c r="F21">
+        <v>0.002185998204174356</v>
+      </c>
+      <c r="G21">
+        <v>-0.1302365999140475</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B22">
-        <v>0</v>
+        <v>0.0006570504068934224</v>
       </c>
       <c r="C22">
-        <v>0</v>
+        <v>0.0003699543602914065</v>
       </c>
       <c r="D22">
-        <v>0</v>
+        <v>-0.0002941594194438239</v>
       </c>
       <c r="E22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
+        <v>-0.001076601926945383</v>
+      </c>
+      <c r="F22">
+        <v>0.0005285765881601882</v>
+      </c>
+      <c r="G22">
+        <v>-0.002129955490344106</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B23">
-        <v>0</v>
+        <v>0.0006613922160009749</v>
       </c>
       <c r="C23">
-        <v>0</v>
+        <v>0.0003696086728905928</v>
       </c>
       <c r="D23">
-        <v>0</v>
+        <v>-0.0002942889148559543</v>
       </c>
       <c r="E23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
+        <v>-0.001082337374300169</v>
+      </c>
+      <c r="F23">
+        <v>0.0005271254003255698</v>
+      </c>
+      <c r="G23">
+        <v>-0.002141588963581182</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B24">
-        <v>-0.003793218220005349</v>
+        <v>-0.02887462990955933</v>
       </c>
       <c r="C24">
-        <v>0.006567220330113955</v>
+        <v>0.05212923118790464</v>
       </c>
       <c r="D24">
-        <v>0.05155591859718753</v>
+        <v>-0.007046198489761849</v>
       </c>
       <c r="E24">
-        <v>0.01020129834981468</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
+        <v>-0.005501786511067416</v>
+      </c>
+      <c r="F24">
+        <v>0.01324233503008832</v>
+      </c>
+      <c r="G24">
+        <v>-0.08604366598398117</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B25">
-        <v>-0.01332897205036594</v>
+        <v>-0.04362152719954691</v>
       </c>
       <c r="C25">
-        <v>-0.01020473170387865</v>
+        <v>0.05968955136799223</v>
       </c>
       <c r="D25">
-        <v>0.06123017520829503</v>
+        <v>-0.01103104974678749</v>
       </c>
       <c r="E25">
-        <v>0.01199385571797584</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
+        <v>0.001464947301412605</v>
+      </c>
+      <c r="F25">
+        <v>0.006827583718511604</v>
+      </c>
+      <c r="G25">
+        <v>-0.09601170348844737</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B26">
-        <v>-0.02336310021317602</v>
+        <v>-0.01385904299690889</v>
       </c>
       <c r="C26">
-        <v>-0.002929185118169236</v>
+        <v>0.01200949968451514</v>
       </c>
       <c r="D26">
-        <v>0.003487351140260724</v>
+        <v>-0.02408762899461201</v>
       </c>
       <c r="E26">
-        <v>0.006521203678008797</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
+        <v>-0.007486047220871423</v>
+      </c>
+      <c r="F26">
+        <v>-0.0078430875765532</v>
+      </c>
+      <c r="G26">
+        <v>-0.07882733400704819</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1153,129 +1315,177 @@
       <c r="E27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:5">
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B28">
-        <v>-0.06686489376632525</v>
+        <v>-0.124868918785063</v>
       </c>
       <c r="C28">
-        <v>-0.2428649200467974</v>
+        <v>-0.2373559097387171</v>
       </c>
       <c r="D28">
-        <v>-0.1223443575237627</v>
+        <v>0.005696844406138795</v>
       </c>
       <c r="E28">
-        <v>0.002981350823465604</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
+        <v>-0.006639404170243564</v>
+      </c>
+      <c r="F28">
+        <v>-0.01500119914188963</v>
+      </c>
+      <c r="G28">
+        <v>-0.05724800422218963</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B29">
-        <v>-0.01093536117517344</v>
+        <v>-0.009958736323481687</v>
       </c>
       <c r="C29">
-        <v>-0.01729922368286368</v>
+        <v>0.02332833345486314</v>
       </c>
       <c r="D29">
-        <v>0.02140720457632108</v>
+        <v>-0.008871155504169958</v>
       </c>
       <c r="E29">
-        <v>5.742083812096831e-05</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
+        <v>-0.0011234346708631</v>
+      </c>
+      <c r="F29">
+        <v>-0.01798498656121114</v>
+      </c>
+      <c r="G29">
+        <v>-0.09187212343635234</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B30">
-        <v>-0.02318541238728395</v>
+        <v>-0.04182822227728191</v>
       </c>
       <c r="C30">
-        <v>0.01022461351637536</v>
+        <v>0.06991280399273046</v>
       </c>
       <c r="D30">
-        <v>0.09965223349133925</v>
+        <v>-0.02863716262831538</v>
       </c>
       <c r="E30">
-        <v>-0.033733823397204</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
+        <v>-0.05255954568110564</v>
+      </c>
+      <c r="F30">
+        <v>0.04685545699122333</v>
+      </c>
+      <c r="G30">
+        <v>-0.1042856980011017</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B31">
-        <v>-0.01206236871093904</v>
+        <v>-0.05335933186411206</v>
       </c>
       <c r="C31">
-        <v>-0.02919934395528771</v>
+        <v>0.03827734122498645</v>
       </c>
       <c r="D31">
-        <v>0.03926486837996254</v>
+        <v>-0.003842374877975507</v>
       </c>
       <c r="E31">
-        <v>0.003226049458426899</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5">
+        <v>0.001748904127996307</v>
+      </c>
+      <c r="F31">
+        <v>-0.04020470289757182</v>
+      </c>
+      <c r="G31">
+        <v>-0.0931715552294945</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B32">
-        <v>0.004913742739230764</v>
+        <v>-0.001824978261411822</v>
       </c>
       <c r="C32">
-        <v>-0.01402829320861194</v>
+        <v>0.02629328422428617</v>
       </c>
       <c r="D32">
-        <v>0.01068999931133864</v>
+        <v>0.003397850087397548</v>
       </c>
       <c r="E32">
-        <v>0.04969222019674551</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5">
+        <v>-0.01976912627321852</v>
+      </c>
+      <c r="F32">
+        <v>0.04038477434632795</v>
+      </c>
+      <c r="G32">
+        <v>-0.09433834648972503</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B33">
-        <v>-0.01477884173213317</v>
+        <v>-0.02828369188841454</v>
       </c>
       <c r="C33">
-        <v>-0.01393356466548353</v>
+        <v>0.05115285247504196</v>
       </c>
       <c r="D33">
-        <v>0.04299589088866208</v>
+        <v>-0.0156974374029363</v>
       </c>
       <c r="E33">
-        <v>-0.02177564853424862</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5">
+        <v>-0.03603699472201296</v>
+      </c>
+      <c r="F33">
+        <v>0.01787204705425132</v>
+      </c>
+      <c r="G33">
+        <v>-0.1436280919552869</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B34">
-        <v>0.001893297953481557</v>
+        <v>-0.04092205726594708</v>
       </c>
       <c r="C34">
-        <v>-0.0160400708842333</v>
+        <v>0.06191129741047141</v>
       </c>
       <c r="D34">
-        <v>0.06061367025201853</v>
+        <v>0.004848081850419524</v>
       </c>
       <c r="E34">
-        <v>0.02142496186169658</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5">
+        <v>0.0004271060154710534</v>
+      </c>
+      <c r="F34">
+        <v>0.01994954975685228</v>
+      </c>
+      <c r="G34">
+        <v>-0.09199795559201586</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1289,27 +1499,39 @@
       <c r="E35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:5">
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
       <c r="A36" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B36">
-        <v>-0.01426399809654579</v>
+        <v>-0.0164178987866678</v>
       </c>
       <c r="C36">
-        <v>-0.01443240683435959</v>
+        <v>0.009841645963422853</v>
       </c>
       <c r="D36">
-        <v>0.007250468572976025</v>
+        <v>-0.01224541462328176</v>
       </c>
       <c r="E36">
-        <v>0.00458094588001119</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5">
+        <v>-0.004169258640483282</v>
+      </c>
+      <c r="F36">
+        <v>-0.006933542384715806</v>
+      </c>
+      <c r="G36">
+        <v>-0.08562234649665423</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
       <c r="A37" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1323,129 +1545,177 @@
       <c r="E37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:5">
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
       <c r="A38" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B38">
-        <v>0.000407736392600213</v>
+        <v>-0.03214268871510407</v>
       </c>
       <c r="C38">
-        <v>-0.0278213619162899</v>
+        <v>0.0319189194164716</v>
       </c>
       <c r="D38">
-        <v>0.05202230595530258</v>
+        <v>0.007512987251021133</v>
       </c>
       <c r="E38">
-        <v>0.009252423890423725</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5">
+        <v>-0.002910198320424139</v>
+      </c>
+      <c r="F38">
+        <v>-0.01912754728460841</v>
+      </c>
+      <c r="G38">
+        <v>-0.08046526906826057</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
       <c r="A39" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B39">
-        <v>-0.002170210557528238</v>
+        <v>-0.03704422684321959</v>
       </c>
       <c r="C39">
-        <v>0.02853693269988538</v>
+        <v>0.08216001290934671</v>
       </c>
       <c r="D39">
-        <v>0.1032172816776637</v>
+        <v>-0.01138648527051356</v>
       </c>
       <c r="E39">
-        <v>-0.006826227042801163</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5">
+        <v>-0.02107558041320014</v>
+      </c>
+      <c r="F39">
+        <v>0.02407290709503029</v>
+      </c>
+      <c r="G39">
+        <v>-0.08420332310575608</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
       <c r="A40" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B40">
-        <v>-0.01277551857367142</v>
+        <v>-0.01512306935574796</v>
       </c>
       <c r="C40">
-        <v>-0.007862290354277315</v>
+        <v>0.04314504643047054</v>
       </c>
       <c r="D40">
-        <v>0.04272028860328688</v>
+        <v>-0.01477051321613095</v>
       </c>
       <c r="E40">
-        <v>0.01376629573912249</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5">
+        <v>-0.02007676007428751</v>
+      </c>
+      <c r="F40">
+        <v>-0.01530099738499616</v>
+      </c>
+      <c r="G40">
+        <v>-0.1208045439500545</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
       <c r="A41" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B41">
-        <v>-0.008413823710072037</v>
+        <v>-0.02050150363550539</v>
       </c>
       <c r="C41">
-        <v>-0.02143691881320198</v>
+        <v>0.002850401879700759</v>
       </c>
       <c r="D41">
-        <v>-0.01025095384310864</v>
+        <v>-0.004288106781462075</v>
       </c>
       <c r="E41">
-        <v>0.007390767140618734</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5">
+        <v>-0.002823231499222445</v>
+      </c>
+      <c r="F41">
+        <v>-0.01436396906839311</v>
+      </c>
+      <c r="G41">
+        <v>-0.07400295832102219</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
       <c r="A42" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B42">
-        <v>-0.08789146453275647</v>
+        <v>-0.009796399490406933</v>
       </c>
       <c r="C42">
-        <v>0.03866714545698859</v>
+        <v>0.03112261578528546</v>
       </c>
       <c r="D42">
-        <v>0.1484924503072542</v>
+        <v>-0.09012171339425126</v>
       </c>
       <c r="E42">
-        <v>-0.3663720834813478</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5">
+        <v>-0.01770809759444412</v>
+      </c>
+      <c r="F42">
+        <v>-0.04283015785109377</v>
+      </c>
+      <c r="G42">
+        <v>0.1216037716388397</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
       <c r="A43" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B43">
-        <v>-0.009817520874928118</v>
+        <v>-0.03455707714774817</v>
       </c>
       <c r="C43">
-        <v>-0.02443140832295769</v>
+        <v>0.01876342253594789</v>
       </c>
       <c r="D43">
-        <v>-0.005076428579247778</v>
+        <v>-0.006015568697397089</v>
       </c>
       <c r="E43">
-        <v>0.008626222602027049</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5">
+        <v>-0.01679912148906635</v>
+      </c>
+      <c r="F43">
+        <v>-0.003482121710646893</v>
+      </c>
+      <c r="G43">
+        <v>-0.108339526649579</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
       <c r="A44" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B44">
-        <v>-0.003134404198844751</v>
+        <v>-0.01300662795714349</v>
       </c>
       <c r="C44">
-        <v>3.195227398051955e-05</v>
+        <v>0.06008502172856989</v>
       </c>
       <c r="D44">
-        <v>0.05612255827243384</v>
+        <v>-0.006657241310933774</v>
       </c>
       <c r="E44">
-        <v>0.01398258746229049</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5">
+        <v>-0.01798763429883467</v>
+      </c>
+      <c r="F44">
+        <v>-0.008245268187770974</v>
+      </c>
+      <c r="G44">
+        <v>-0.1016551955158138</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
       <c r="A45" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1459,61 +1729,85 @@
       <c r="E45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:5">
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
       <c r="A46" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B46">
-        <v>-0.01214959659015477</v>
+        <v>-0.008270939675119221</v>
       </c>
       <c r="C46">
-        <v>-0.009578125166411166</v>
+        <v>0.0181362666754777</v>
       </c>
       <c r="D46">
-        <v>0.007779344707001516</v>
+        <v>-0.01257926730315771</v>
       </c>
       <c r="E46">
-        <v>-0.007127747798180049</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5">
+        <v>-0.00140535683441042</v>
+      </c>
+      <c r="F46">
+        <v>-0.01707475246798017</v>
+      </c>
+      <c r="G46">
+        <v>-0.09545856947111694</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
       <c r="A47" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B47">
-        <v>-0.007586489231519068</v>
+        <v>-0.07789010708355845</v>
       </c>
       <c r="C47">
-        <v>-0.03860445075236654</v>
+        <v>0.06728423240261647</v>
       </c>
       <c r="D47">
-        <v>0.0767509047748751</v>
+        <v>0.005077482250328143</v>
       </c>
       <c r="E47">
-        <v>0.0111731283928045</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5">
+        <v>0.006523740557690912</v>
+      </c>
+      <c r="F47">
+        <v>-0.05490447181898808</v>
+      </c>
+      <c r="G47">
+        <v>-0.0817454031641752</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
       <c r="A48" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B48">
-        <v>-0.005548059782451015</v>
+        <v>-0.01971331948655274</v>
       </c>
       <c r="C48">
-        <v>-0.01822526692258836</v>
+        <v>0.0132426503746077</v>
       </c>
       <c r="D48">
-        <v>0.01991888202624464</v>
+        <v>-0.001926109010399</v>
       </c>
       <c r="E48">
-        <v>-0.0009614233205240386</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5">
+        <v>-0.002303252069160623</v>
+      </c>
+      <c r="F48">
+        <v>-0.01971783659056023</v>
+      </c>
+      <c r="G48">
+        <v>-0.08849975637151071</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
       <c r="A49" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1527,44 +1821,62 @@
       <c r="E49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:5">
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
       <c r="A50" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B50">
-        <v>-0.009917912682278989</v>
+        <v>-0.07532396703117845</v>
       </c>
       <c r="C50">
-        <v>-0.04073028017020741</v>
+        <v>0.07254796448512629</v>
       </c>
       <c r="D50">
-        <v>0.07412110536224624</v>
+        <v>0.002434983285994451</v>
       </c>
       <c r="E50">
-        <v>0.02852755649373233</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5">
+        <v>0.006496546725711364</v>
+      </c>
+      <c r="F50">
+        <v>-0.05551911117744682</v>
+      </c>
+      <c r="G50">
+        <v>-0.09375610279933783</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
       <c r="A51" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B51">
-        <v>-0.008643789086685264</v>
+        <v>-0.0147925635901174</v>
       </c>
       <c r="C51">
-        <v>-0.01115513228466595</v>
+        <v>0.03706518648620052</v>
       </c>
       <c r="D51">
-        <v>0.02366199398789206</v>
+        <v>-0.01027128756844535</v>
       </c>
       <c r="E51">
-        <v>0.009283106550276249</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5">
+        <v>-0.01826561013850804</v>
+      </c>
+      <c r="F51">
+        <v>0.02274732882403311</v>
+      </c>
+      <c r="G51">
+        <v>-0.1181359793131318</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
       <c r="A52" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1578,163 +1890,223 @@
       <c r="E52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:5">
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
       <c r="A53" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B53">
-        <v>-0.01054798480984828</v>
+        <v>-0.08240332301511535</v>
       </c>
       <c r="C53">
-        <v>-0.03953345374948684</v>
+        <v>0.08579471252860195</v>
       </c>
       <c r="D53">
-        <v>0.1308797695959335</v>
+        <v>0.003619823683342678</v>
       </c>
       <c r="E53">
-        <v>0.01683303358957203</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5">
+        <v>0.02457340909076872</v>
+      </c>
+      <c r="F53">
+        <v>-0.06698238107209127</v>
+      </c>
+      <c r="G53">
+        <v>-0.08101150461127728</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
       <c r="A54" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B54">
-        <v>-0.006482849372069712</v>
+        <v>-0.03166565368715357</v>
       </c>
       <c r="C54">
-        <v>-0.04098986274973596</v>
+        <v>0.01765405143756207</v>
       </c>
       <c r="D54">
-        <v>0.001221750292875755</v>
+        <v>0.001570536894936575</v>
       </c>
       <c r="E54">
-        <v>-0.009980153781703544</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5">
+        <v>-0.01300990340991723</v>
+      </c>
+      <c r="F54">
+        <v>-0.004876409045110936</v>
+      </c>
+      <c r="G54">
+        <v>-0.09819252090695633</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
       <c r="A55" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B55">
-        <v>-0.005939646150520741</v>
+        <v>-0.07237170056623564</v>
       </c>
       <c r="C55">
-        <v>-0.02686778960066415</v>
+        <v>0.06941948678493039</v>
       </c>
       <c r="D55">
-        <v>0.1070492834676741</v>
+        <v>0.005098447523170121</v>
       </c>
       <c r="E55">
-        <v>0.006005783491330026</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5">
+        <v>0.02162889777112038</v>
+      </c>
+      <c r="F55">
+        <v>-0.06335598160380217</v>
+      </c>
+      <c r="G55">
+        <v>-0.05858697047445668</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
       <c r="A56" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B56">
-        <v>-0.0109239595070864</v>
+        <v>-0.1380670982812271</v>
       </c>
       <c r="C56">
-        <v>-0.05922439897006783</v>
+        <v>0.1081729025203906</v>
       </c>
       <c r="D56">
-        <v>0.1623412499542972</v>
+        <v>0.01272431798924401</v>
       </c>
       <c r="E56">
-        <v>0.01808715146874837</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5">
+        <v>0.0302183643157589</v>
+      </c>
+      <c r="F56">
+        <v>-0.08175350451194327</v>
+      </c>
+      <c r="G56">
+        <v>-0.03004566140557037</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
       <c r="A57" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B57">
-        <v>-0.02511016352572196</v>
+        <v>-0.006705464257775108</v>
       </c>
       <c r="C57">
-        <v>-0.00476224149334204</v>
+        <v>0.008712546424764303</v>
       </c>
       <c r="D57">
-        <v>0.04303604809054303</v>
+        <v>-0.02345799360178742</v>
       </c>
       <c r="E57">
-        <v>-0.02833150808045731</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5">
+        <v>-0.02545609563675244</v>
+      </c>
+      <c r="F57">
+        <v>0.01097257111426242</v>
+      </c>
+      <c r="G57">
+        <v>-0.02888911071898752</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
       <c r="A58" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B58">
-        <v>-0.01328768253739539</v>
+        <v>-0.05343262705391175</v>
       </c>
       <c r="C58">
-        <v>-0.03833588481460695</v>
+        <v>0.05221703474506482</v>
       </c>
       <c r="D58">
-        <v>0.1391311513340266</v>
+        <v>-0.02360487893464574</v>
       </c>
       <c r="E58">
-        <v>-0.7228722220566068</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5">
+        <v>-0.9372107860712043</v>
+      </c>
+      <c r="F58">
+        <v>-0.218551496311294</v>
+      </c>
+      <c r="G58">
+        <v>0.1545055429414935</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
       <c r="A59" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B59">
-        <v>-0.06796761689178611</v>
+        <v>-0.159860201871431</v>
       </c>
       <c r="C59">
-        <v>-0.2655402961303887</v>
+        <v>-0.2035968809602688</v>
       </c>
       <c r="D59">
-        <v>-0.105821078203088</v>
+        <v>0.01119321107983726</v>
       </c>
       <c r="E59">
-        <v>0.01712817172228764</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5">
+        <v>-0.01857663468804147</v>
+      </c>
+      <c r="F59">
+        <v>0.0006132700490189408</v>
+      </c>
+      <c r="G59">
+        <v>-0.04478812077262503</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
       <c r="A60" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B60">
-        <v>-0.06114479340730705</v>
+        <v>-0.2871143654288417</v>
       </c>
       <c r="C60">
-        <v>-0.1610342194334422</v>
+        <v>0.1052499449847845</v>
       </c>
       <c r="D60">
-        <v>0.1371115055982222</v>
+        <v>-0.01157862845406184</v>
       </c>
       <c r="E60">
-        <v>0.06429014690951389</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5">
+        <v>0.01001355344292098</v>
+      </c>
+      <c r="F60">
+        <v>0.3441793449944062</v>
+      </c>
+      <c r="G60">
+        <v>0.1458392163665854</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
       <c r="A61" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B61">
-        <v>-0.003241581883940808</v>
+        <v>-0.0383306510278574</v>
       </c>
       <c r="C61">
-        <v>0.0007817806670496404</v>
+        <v>0.06721215860156732</v>
       </c>
       <c r="D61">
-        <v>0.07563388753488372</v>
+        <v>-0.005152251107139361</v>
       </c>
       <c r="E61">
-        <v>0.009653667219769605</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5">
+        <v>-0.01353630061155407</v>
+      </c>
+      <c r="F61">
+        <v>0.01560144965228899</v>
+      </c>
+      <c r="G61">
+        <v>-0.08815067961678137</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
       <c r="A62" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1748,129 +2120,177 @@
       <c r="E62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:5">
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
       <c r="A63" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B63">
-        <v>-0.00884500371700893</v>
+        <v>-0.01549543162814104</v>
       </c>
       <c r="C63">
-        <v>-0.004789088541380833</v>
+        <v>0.03091336849768849</v>
       </c>
       <c r="D63">
-        <v>0.02879851224586278</v>
+        <v>-0.008541968566078707</v>
       </c>
       <c r="E63">
-        <v>0.01599324215983676</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5">
+        <v>-0.00172406551768688</v>
+      </c>
+      <c r="F63">
+        <v>-0.01673134212096059</v>
+      </c>
+      <c r="G63">
+        <v>-0.09165851120009696</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
       <c r="A64" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B64">
-        <v>-0.01126437821067914</v>
+        <v>-0.04798099473343913</v>
       </c>
       <c r="C64">
-        <v>-0.02310500905832555</v>
+        <v>0.04739344815617118</v>
       </c>
       <c r="D64">
-        <v>0.0623466048949112</v>
+        <v>-0.005996752916544636</v>
       </c>
       <c r="E64">
-        <v>0.004921966248228179</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5">
+        <v>0.0005474175579889945</v>
+      </c>
+      <c r="F64">
+        <v>0.006373413978650648</v>
+      </c>
+      <c r="G64">
+        <v>-0.08511731910752561</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
       <c r="A65" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B65">
-        <v>-0.01800458446787733</v>
+        <v>-0.07510606788511208</v>
       </c>
       <c r="C65">
-        <v>0.002007094799499021</v>
+        <v>0.06004558183801043</v>
       </c>
       <c r="D65">
-        <v>0.110183099959075</v>
+        <v>-0.01638387161018319</v>
       </c>
       <c r="E65">
-        <v>0.02561714024303272</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5">
+        <v>-0.03239291600238391</v>
+      </c>
+      <c r="F65">
+        <v>0.03115482564444466</v>
+      </c>
+      <c r="G65">
+        <v>-0.03244621166622833</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
       <c r="A66" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B66">
-        <v>-0.00273242397676365</v>
+        <v>-0.0521197881220786</v>
       </c>
       <c r="C66">
-        <v>0.02551591986828891</v>
+        <v>0.1096536912183216</v>
       </c>
       <c r="D66">
-        <v>0.1360775353929075</v>
+        <v>-0.01134553023036206</v>
       </c>
       <c r="E66">
-        <v>-0.001042639218105121</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5">
+        <v>-0.03017786509121363</v>
+      </c>
+      <c r="F66">
+        <v>0.03633006599404474</v>
+      </c>
+      <c r="G66">
+        <v>-0.09984742475553457</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
       <c r="A67" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B67">
-        <v>-0.008341080151076961</v>
+        <v>-0.05527111660055217</v>
       </c>
       <c r="C67">
-        <v>-0.04829474206505738</v>
+        <v>0.03506865226836475</v>
       </c>
       <c r="D67">
-        <v>0.06805349589777566</v>
+        <v>0.005911622681927105</v>
       </c>
       <c r="E67">
-        <v>0.0115458928188705</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5">
+        <v>0.003643099480628463</v>
+      </c>
+      <c r="F67">
+        <v>-0.01813265964893979</v>
+      </c>
+      <c r="G67">
+        <v>-0.0721470130068293</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
       <c r="A68" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B68">
-        <v>-0.08250638876532251</v>
+        <v>-0.1533923556298816</v>
       </c>
       <c r="C68">
-        <v>-0.2471513225367483</v>
+        <v>-0.2693566446193711</v>
       </c>
       <c r="D68">
-        <v>-0.154001666181418</v>
+        <v>-0.006304116019750468</v>
       </c>
       <c r="E68">
-        <v>-0.02535969883380845</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5">
+        <v>-0.01250657243233792</v>
+      </c>
+      <c r="F68">
+        <v>-0.0341723672803196</v>
+      </c>
+      <c r="G68">
+        <v>-0.03296032168598959</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
       <c r="A69" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B69">
-        <v>-0.003381806252938378</v>
+        <v>-0.08259768723640544</v>
       </c>
       <c r="C69">
-        <v>-0.03520754747830084</v>
+        <v>0.07116311977990032</v>
       </c>
       <c r="D69">
-        <v>0.08089752782504962</v>
+        <v>0.008949885700191611</v>
       </c>
       <c r="E69">
-        <v>0.02360396718835827</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5">
+        <v>0.02292630474225772</v>
+      </c>
+      <c r="F69">
+        <v>-0.0366238526589214</v>
+      </c>
+      <c r="G69">
+        <v>-0.09140726083397266</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
       <c r="A70" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1884,146 +2304,200 @@
       <c r="E70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:5">
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
       <c r="A71" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B71">
-        <v>-0.06309881735265005</v>
+        <v>-0.1396964202236982</v>
       </c>
       <c r="C71">
-        <v>-0.2108320165326497</v>
+        <v>-0.2277623824810308</v>
       </c>
       <c r="D71">
-        <v>-0.1021126115467299</v>
+        <v>0.002333191504639142</v>
       </c>
       <c r="E71">
-        <v>-0.02250826593905483</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5">
+        <v>-0.03362197783217424</v>
+      </c>
+      <c r="F71">
+        <v>-0.01915522950591924</v>
+      </c>
+      <c r="G71">
+        <v>-0.06805701704992355</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
       <c r="A72" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B72">
-        <v>-0.0009229292438635669</v>
+        <v>-0.08511015683193622</v>
       </c>
       <c r="C72">
-        <v>-0.02720469353133236</v>
+        <v>0.0726341244278757</v>
       </c>
       <c r="D72">
-        <v>0.1088035419352345</v>
+        <v>0.008485033761469488</v>
       </c>
       <c r="E72">
-        <v>0.03338014063225531</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5">
+        <v>0.005113713429986799</v>
+      </c>
+      <c r="F72">
+        <v>0.03832162215620354</v>
+      </c>
+      <c r="G72">
+        <v>-0.07828344377212909</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
       <c r="A73" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B73">
-        <v>-0.07567186784034478</v>
+        <v>-0.3765775919409727</v>
       </c>
       <c r="C73">
-        <v>-0.1767540934041347</v>
+        <v>0.1148080831440205</v>
       </c>
       <c r="D73">
-        <v>0.2524661181449493</v>
+        <v>-0.01969620814639921</v>
       </c>
       <c r="E73">
-        <v>0.03561844016753089</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5">
+        <v>-0.05790893282640747</v>
+      </c>
+      <c r="F73">
+        <v>0.5761942157983506</v>
+      </c>
+      <c r="G73">
+        <v>0.2664588270669909</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
       <c r="A74" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B74">
-        <v>-0.009259624308768508</v>
+        <v>-0.1054329370135456</v>
       </c>
       <c r="C74">
-        <v>-0.05414427858983437</v>
+        <v>0.1091789772728453</v>
       </c>
       <c r="D74">
-        <v>0.1737028109021519</v>
+        <v>0.009349865040898152</v>
       </c>
       <c r="E74">
-        <v>0.01146662071398958</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5">
+        <v>0.00609846258925112</v>
+      </c>
+      <c r="F74">
+        <v>-0.06802793610056844</v>
+      </c>
+      <c r="G74">
+        <v>-0.07420354428266453</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
       <c r="A75" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B75">
-        <v>-0.02418570874377959</v>
+        <v>-0.2492051073642828</v>
       </c>
       <c r="C75">
-        <v>-0.1325665781453793</v>
+        <v>0.1511236601465782</v>
       </c>
       <c r="D75">
-        <v>0.3033046645314085</v>
+        <v>0.03091511265720686</v>
       </c>
       <c r="E75">
-        <v>0.01439436396516437</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5">
+        <v>0.05462380502283284</v>
+      </c>
+      <c r="F75">
+        <v>-0.1801517468942293</v>
+      </c>
+      <c r="G75">
+        <v>0.04051882826572514</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
       <c r="A76" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B76">
-        <v>-0.007634555133362888</v>
+        <v>-0.1204932338892444</v>
       </c>
       <c r="C76">
-        <v>-0.07583940799659433</v>
+        <v>0.1100148683510362</v>
       </c>
       <c r="D76">
-        <v>0.2208127590138981</v>
+        <v>0.01876428332753069</v>
       </c>
       <c r="E76">
-        <v>0.04483710230086522</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5">
+        <v>0.02894009407175585</v>
+      </c>
+      <c r="F76">
+        <v>-0.1118252435476801</v>
+      </c>
+      <c r="G76">
+        <v>-0.05349184857335411</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
       <c r="A77" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B77">
-        <v>-0.01512868909288885</v>
+        <v>-0.06762588946009575</v>
       </c>
       <c r="C77">
-        <v>-0.01210963453223983</v>
+        <v>0.06076521157348471</v>
       </c>
       <c r="D77">
-        <v>0.06702201125634011</v>
+        <v>-0.01135587592362579</v>
       </c>
       <c r="E77">
-        <v>-0.008009712533006613</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5">
+        <v>-0.04075938180291099</v>
+      </c>
+      <c r="F77">
+        <v>0.01617954424754694</v>
+      </c>
+      <c r="G77">
+        <v>-0.05827782382571267</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
       <c r="A78" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B78">
-        <v>-0.004953495111846309</v>
+        <v>-0.04222848203497202</v>
       </c>
       <c r="C78">
-        <v>-0.004270363229671419</v>
+        <v>0.05163641247845585</v>
       </c>
       <c r="D78">
-        <v>0.0576910197567</v>
+        <v>-0.005314383221132949</v>
       </c>
       <c r="E78">
-        <v>-0.002019882600839719</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5">
+        <v>-0.02171386034706465</v>
+      </c>
+      <c r="F78">
+        <v>0.03700134037524696</v>
+      </c>
+      <c r="G78">
+        <v>-0.08580214503667989</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
       <c r="A79" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -2037,78 +2511,108 @@
       <c r="E79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:5">
+      <c r="F79">
+        <v>0</v>
+      </c>
+      <c r="G79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
       <c r="A80" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B80">
-        <v>-0.01313175796523844</v>
+        <v>-0.04308904831596056</v>
       </c>
       <c r="C80">
-        <v>-0.01594741034733522</v>
+        <v>0.07337357808900813</v>
       </c>
       <c r="D80">
-        <v>0.1526475154156388</v>
+        <v>-0.01148645867724757</v>
       </c>
       <c r="E80">
-        <v>0.5350408049480827</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5">
+        <v>0.03243782558010332</v>
+      </c>
+      <c r="F80">
+        <v>0.03082390960745506</v>
+      </c>
+      <c r="G80">
+        <v>-0.3470644193134501</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
       <c r="A81" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B81">
-        <v>-0.01602017777176629</v>
+        <v>-0.1388934821580496</v>
       </c>
       <c r="C81">
-        <v>-0.08203642677710592</v>
+        <v>0.09581533196347006</v>
       </c>
       <c r="D81">
-        <v>0.1794568560052429</v>
+        <v>0.01514712314317292</v>
       </c>
       <c r="E81">
-        <v>0.02955851267301444</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5">
+        <v>0.032848808648892</v>
+      </c>
+      <c r="F81">
+        <v>-0.1316431403073466</v>
+      </c>
+      <c r="G81">
+        <v>-0.02153735505209153</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
       <c r="A82" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B82">
-        <v>0</v>
+        <v>-0.1287911416127571</v>
       </c>
       <c r="C82">
-        <v>0</v>
+        <v>0.07416133532708834</v>
       </c>
       <c r="D82">
-        <v>0</v>
+        <v>0.008317179516311756</v>
       </c>
       <c r="E82">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5">
+        <v>0.08947918132678113</v>
+      </c>
+      <c r="F82">
+        <v>-0.043891972532402</v>
+      </c>
+      <c r="G82">
+        <v>-0.05739268442999224</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
       <c r="A83" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B83">
-        <v>-0.008856070680370089</v>
+        <v>-0.03665187293886051</v>
       </c>
       <c r="C83">
-        <v>-0.01685856456808793</v>
+        <v>0.02989119261611459</v>
       </c>
       <c r="D83">
-        <v>0.03869940954559935</v>
+        <v>-0.00568565364262996</v>
       </c>
       <c r="E83">
-        <v>-0.009619472531471867</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5">
+        <v>-0.0275355882537674</v>
+      </c>
+      <c r="F83">
+        <v>0.03265642323161977</v>
+      </c>
+      <c r="G83">
+        <v>-0.06004650586032291</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
       <c r="A84" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -2122,197 +2626,269 @@
       <c r="E84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:5">
+      <c r="F84">
+        <v>0</v>
+      </c>
+      <c r="G84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
       <c r="A85" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B85">
-        <v>-0.0271804283736133</v>
+        <v>-0.2137858232492681</v>
       </c>
       <c r="C85">
-        <v>-0.09480447631666364</v>
+        <v>0.144178979475581</v>
       </c>
       <c r="D85">
-        <v>0.2671524804037184</v>
+        <v>0.01800747802694283</v>
       </c>
       <c r="E85">
-        <v>0.02577693003649674</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5">
+        <v>0.09416441964754371</v>
+      </c>
+      <c r="F85">
+        <v>-0.1354376724173734</v>
+      </c>
+      <c r="G85">
+        <v>0.09854495421186428</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
       <c r="A86" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B86">
-        <v>-0.01100632307137186</v>
+        <v>-0.0138430000043042</v>
       </c>
       <c r="C86">
-        <v>-0.01979361441735062</v>
+        <v>0.03023294116189038</v>
       </c>
       <c r="D86">
-        <v>0.06369474149660775</v>
+        <v>-0.01239988229131243</v>
       </c>
       <c r="E86">
-        <v>-0.02324365465930501</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5">
+        <v>-0.04860524541553458</v>
+      </c>
+      <c r="F86">
+        <v>0.03288379473507549</v>
+      </c>
+      <c r="G86">
+        <v>-0.1797176762323608</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
       <c r="A87" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B87">
-        <v>-0.006999056623056562</v>
+        <v>-0.02246172617401853</v>
       </c>
       <c r="C87">
-        <v>0.006390084385454979</v>
+        <v>0.02387601932500261</v>
       </c>
       <c r="D87">
-        <v>0.05313369776470644</v>
+        <v>-0.01181628720690717</v>
       </c>
       <c r="E87">
-        <v>-0.02080194330792393</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5">
+        <v>-0.08614447779592807</v>
+      </c>
+      <c r="F87">
+        <v>0.01657481879086153</v>
+      </c>
+      <c r="G87">
+        <v>-0.1133862672512034</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
       <c r="A88" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B88">
-        <v>-0.03189747961811982</v>
+        <v>-0.09295348224432981</v>
       </c>
       <c r="C88">
-        <v>-0.03002633242560461</v>
+        <v>0.06800364182466737</v>
       </c>
       <c r="D88">
-        <v>0.06120687292357032</v>
+        <v>-0.02248084410025952</v>
       </c>
       <c r="E88">
-        <v>0.004498245843687448</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5">
+        <v>0.007350559263990587</v>
+      </c>
+      <c r="F88">
+        <v>-0.01701099572224309</v>
+      </c>
+      <c r="G88">
+        <v>-0.08101167340679763</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
       <c r="A89" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B89">
-        <v>-0.1204756450983315</v>
+        <v>-0.2320956078201028</v>
       </c>
       <c r="C89">
-        <v>-0.3940910867535127</v>
+        <v>-0.3675516980478871</v>
       </c>
       <c r="D89">
-        <v>-0.1847666239406914</v>
+        <v>-0.0004601356496098317</v>
       </c>
       <c r="E89">
-        <v>0.027822397721014</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5">
+        <v>0.01336382936081117</v>
+      </c>
+      <c r="F89">
+        <v>-0.02581933506006445</v>
+      </c>
+      <c r="G89">
+        <v>-0.06845897092199013</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
       <c r="A90" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B90">
-        <v>-0.09436977489614132</v>
+        <v>-0.2076042654725761</v>
       </c>
       <c r="C90">
-        <v>-0.3154573174780477</v>
+        <v>-0.3194061805088823</v>
       </c>
       <c r="D90">
-        <v>-0.1701532616918212</v>
+        <v>0.004331035500820286</v>
       </c>
       <c r="E90">
-        <v>-0.01100034183215659</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5">
+        <v>0.003080179850111755</v>
+      </c>
+      <c r="F90">
+        <v>-0.05525651580978734</v>
+      </c>
+      <c r="G90">
+        <v>-0.03622121413835763</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
       <c r="A91" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B91">
-        <v>-0.01913427227580077</v>
+        <v>-0.1873403597236872</v>
       </c>
       <c r="C91">
-        <v>-0.1157689224240962</v>
+        <v>0.1386762226321705</v>
       </c>
       <c r="D91">
-        <v>0.2249649886610216</v>
+        <v>0.02241332084318776</v>
       </c>
       <c r="E91">
-        <v>0.02596083820429427</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5">
+        <v>0.05835952935622352</v>
+      </c>
+      <c r="F91">
+        <v>-0.1471933924002347</v>
+      </c>
+      <c r="G91">
+        <v>-0.01712544138954076</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
       <c r="A92" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B92">
-        <v>-0.06075903459093342</v>
+        <v>-0.1991502728121536</v>
       </c>
       <c r="C92">
-        <v>-0.3142597513179914</v>
+        <v>-0.2564167624690465</v>
       </c>
       <c r="D92">
-        <v>-0.0684943126593508</v>
+        <v>0.03743887953420637</v>
       </c>
       <c r="E92">
-        <v>-0.04737802341239433</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5">
+        <v>-0.03972702935841196</v>
+      </c>
+      <c r="F92">
+        <v>-0.05558637364708331</v>
+      </c>
+      <c r="G92">
+        <v>-0.1322553610291856</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
       <c r="A93" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B93">
-        <v>-0.09469343701470899</v>
+        <v>-0.2316836641236908</v>
       </c>
       <c r="C93">
-        <v>-0.3367707983266651</v>
+        <v>-0.3155251410048349</v>
       </c>
       <c r="D93">
-        <v>-0.1398269510983595</v>
+        <v>0.0109260491669267</v>
       </c>
       <c r="E93">
-        <v>-0.02370322642458078</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5">
+        <v>-0.009216068718013689</v>
+      </c>
+      <c r="F93">
+        <v>-0.04024488210638027</v>
+      </c>
+      <c r="G93">
+        <v>-0.04887373278429982</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
       <c r="A94" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B94">
-        <v>-0.05552627423732504</v>
+        <v>-0.3159795784028496</v>
       </c>
       <c r="C94">
-        <v>-0.1685979592867648</v>
+        <v>0.1743473219021141</v>
       </c>
       <c r="D94">
-        <v>0.2728480150849526</v>
+        <v>0.01733937966976862</v>
       </c>
       <c r="E94">
-        <v>0.05365765205269377</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5">
+        <v>0.170529921179114</v>
+      </c>
+      <c r="F94">
+        <v>-0.483399159052697</v>
+      </c>
+      <c r="G94">
+        <v>0.3832592150196087</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
       <c r="A95" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B95">
-        <v>0.001293163024639097</v>
+        <v>-0.1012889211403519</v>
       </c>
       <c r="C95">
-        <v>-0.02996983921946936</v>
+        <v>0.08533115381458907</v>
       </c>
       <c r="D95">
-        <v>0.1169836341461828</v>
+        <v>0.01108759415370899</v>
       </c>
       <c r="E95">
-        <v>-0.1370945686492078</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5">
+        <v>-0.06835725224690495</v>
+      </c>
+      <c r="F95">
+        <v>0.2044741794505122</v>
+      </c>
+      <c r="G95">
+        <v>0.09786159300106687</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
       <c r="A96" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2326,10 +2902,16 @@
       <c r="E96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:5">
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
       <c r="A97" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2343,27 +2925,39 @@
       <c r="E97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:5">
+      <c r="F97">
+        <v>0</v>
+      </c>
+      <c r="G97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
       <c r="A98" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B98">
-        <v>-0.02956138529453842</v>
+        <v>-0.1977548721985868</v>
       </c>
       <c r="C98">
-        <v>-0.1474679171000646</v>
+        <v>0.04404254270089844</v>
       </c>
       <c r="D98">
-        <v>0.1463592650245836</v>
+        <v>0.01378845024236213</v>
       </c>
       <c r="E98">
-        <v>-0.0260979891389748</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5">
+        <v>-0.06240590792531871</v>
+      </c>
+      <c r="F98">
+        <v>0.2399436973235906</v>
+      </c>
+      <c r="G98">
+        <v>0.008420671504318673</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
       <c r="A99" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2377,10 +2971,16 @@
       <c r="E99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:5">
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
       <c r="A100" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2394,44 +2994,62 @@
       <c r="E100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:5">
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
       <c r="A101" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B101">
-        <v>-0.01073067929934789</v>
+        <v>-0.009738852536037162</v>
       </c>
       <c r="C101">
-        <v>-0.01713733794569167</v>
+        <v>0.02335351635945447</v>
       </c>
       <c r="D101">
-        <v>0.02133596847040159</v>
+        <v>-0.008717270215053047</v>
       </c>
       <c r="E101">
-        <v>0.0001578183135647028</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5">
+        <v>-0.001008401585699541</v>
+      </c>
+      <c r="F101">
+        <v>-0.01893286885170191</v>
+      </c>
+      <c r="G101">
+        <v>-0.09097987939727854</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
       <c r="A102" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B102">
-        <v>-0.02115606760328216</v>
+        <v>-0.1171879873103751</v>
       </c>
       <c r="C102">
-        <v>-0.04730447241723694</v>
+        <v>0.08252258769507168</v>
       </c>
       <c r="D102">
-        <v>0.1284257827404177</v>
+        <v>-0.000697233126359543</v>
       </c>
       <c r="E102">
-        <v>0.01355461580549758</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5">
+        <v>0.03399477909166328</v>
+      </c>
+      <c r="F102">
+        <v>-0.0414192975276947</v>
+      </c>
+      <c r="G102">
+        <v>-0.006264955900341702</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
       <c r="A103" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2445,22 +3063,34 @@
       <c r="E103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:5">
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
       <c r="A104" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B104">
-        <v>-0.9534486091922609</v>
+        <v>-0.02111456697988651</v>
       </c>
       <c r="C104">
-        <v>0.2688425569737647</v>
+        <v>-0.02903050481165321</v>
       </c>
       <c r="D104">
-        <v>-0.03146340111370852</v>
+        <v>-0.9878518412144136</v>
       </c>
       <c r="E104">
-        <v>0.03039486026132973</v>
+        <v>0.04613560721389681</v>
+      </c>
+      <c r="F104">
+        <v>-0.03567958211052924</v>
+      </c>
+      <c r="G104">
+        <v>0.03284007169570347</v>
       </c>
     </row>
   </sheetData>
